--- a/demo/patients-data-demo.xlsx
+++ b/demo/patients-data-demo.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3T5nm05os/ZQ5V2uuwwgNAUAjtUSIRp85Myo6QeXz4M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="s/B/cYR6YKmXyH+z7DCOqt1FN9Z4Ck9/RFALpK+pMOg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="404">
   <si>
     <t>Lp</t>
   </si>
@@ -858,9 +858,6 @@
     <t>Rozenek</t>
   </si>
   <si>
-    <t>TAK</t>
-  </si>
-  <si>
     <t>7. 1</t>
   </si>
   <si>
@@ -1038,9 +1035,6 @@
     <t>Jaszewski</t>
   </si>
   <si>
-    <t>NIE</t>
-  </si>
-  <si>
     <t>83. 1</t>
   </si>
   <si>
@@ -1165,9 +1159,6 @@
   </si>
   <si>
     <t>Tuszencka</t>
-  </si>
-  <si>
-    <t>Polska</t>
   </si>
   <si>
     <t>281. 1</t>
@@ -1243,9 +1234,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m. d"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1285,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1305,12 +1295,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1534,7 +1518,7 @@
     <col customWidth="1" min="6" max="6" width="18.0"/>
     <col customWidth="1" min="7" max="7" width="22.0"/>
     <col customWidth="1" min="8" max="9" width="14.0"/>
-    <col customWidth="1" min="10" max="24" width="22.0"/>
+    <col customWidth="1" min="10" max="10" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1568,20 +1552,6 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6478,20 +6448,6 @@
       <c r="J154" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K154" s="3"/>
-      <c r="L154" s="3"/>
-      <c r="M154" s="3"/>
-      <c r="N154" s="3"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
-      <c r="U154" s="3"/>
-      <c r="V154" s="3"/>
-      <c r="W154" s="3"/>
-      <c r="X154" s="3"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="2" t="s">
@@ -6524,20 +6480,6 @@
       <c r="J155" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K155" s="3"/>
-      <c r="L155" s="3"/>
-      <c r="M155" s="3"/>
-      <c r="N155" s="3"/>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
-      <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-      <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
-      <c r="U155" s="3"/>
-      <c r="V155" s="3"/>
-      <c r="W155" s="3"/>
-      <c r="X155" s="3"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="2" t="s">
@@ -6570,20 +6512,6 @@
       <c r="J156" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="K156" s="3"/>
-      <c r="L156" s="3"/>
-      <c r="M156" s="3"/>
-      <c r="N156" s="3"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="3"/>
-      <c r="V156" s="3"/>
-      <c r="W156" s="3"/>
-      <c r="X156" s="3"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="2" t="s">
@@ -6616,19 +6544,6 @@
       <c r="J157" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="L157" s="3"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
-      <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-      <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
-      <c r="U157" s="3"/>
-      <c r="V157" s="3"/>
-      <c r="W157" s="3"/>
-      <c r="X157" s="3"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="5" t="s">
@@ -6661,50 +6576,10 @@
       <c r="J158" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O158" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P158" s="8">
-        <v>80.0</v>
-      </c>
-      <c r="Q158" s="8">
-        <v>28.0</v>
-      </c>
-      <c r="R158" s="8">
-        <v>1825.0</v>
-      </c>
-      <c r="S158" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="T158" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U158" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V158" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W158" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X158" s="7" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>278</v>
@@ -6731,46 +6606,12 @@
         <v>13</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O159" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R159" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="S159" s="7"/>
-      <c r="T159" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U159" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V159" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W159" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X159" s="7"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>278</v>
@@ -6797,48 +6638,12 @@
         <v>13</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P160" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q160" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R160" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S160" s="7"/>
-      <c r="T160" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U160" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V160" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W160" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X160" s="7"/>
+        <v>283</v>
+      </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>278</v>
@@ -6865,48 +6670,12 @@
         <v>13</v>
       </c>
       <c r="J161" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K161" s="7"/>
-      <c r="L161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P161" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q161" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R161" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="S161" s="7"/>
-      <c r="T161" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U161" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V161" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W161" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X161" s="7"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>278</v>
@@ -6933,48 +6702,12 @@
         <v>13</v>
       </c>
       <c r="J162" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K162" s="7"/>
-      <c r="L162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P162" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q162" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R162" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="S162" s="7"/>
-      <c r="T162" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U162" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V162" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W162" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X162" s="7"/>
+        <v>287</v>
+      </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>278</v>
@@ -7001,48 +6734,12 @@
         <v>13</v>
       </c>
       <c r="J163" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K163" s="7"/>
-      <c r="L163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P163" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q163" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R163" s="8">
-        <v>70.0</v>
-      </c>
-      <c r="S163" s="7"/>
-      <c r="T163" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U163" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V163" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W163" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X163" s="7"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>278</v>
@@ -7069,48 +6766,12 @@
         <v>13</v>
       </c>
       <c r="J164" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P164" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q164" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R164" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S164" s="7"/>
-      <c r="T164" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U164" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V164" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W164" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X164" s="7"/>
+        <v>291</v>
+      </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>278</v>
@@ -7137,48 +6798,12 @@
         <v>13</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K165" s="7"/>
-      <c r="L165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P165" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="Q165" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R165" s="8">
-        <v>80.0</v>
-      </c>
-      <c r="S165" s="7"/>
-      <c r="T165" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U165" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V165" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W165" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X165" s="7"/>
+        <v>293</v>
+      </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>278</v>
@@ -7205,48 +6830,12 @@
         <v>13</v>
       </c>
       <c r="J166" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K166" s="7"/>
-      <c r="L166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O166" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P166" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q166" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R166" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S166" s="7"/>
-      <c r="T166" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U166" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V166" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W166" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X166" s="7"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>278</v>
@@ -7273,48 +6862,12 @@
         <v>13</v>
       </c>
       <c r="J167" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P167" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q167" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R167" s="8">
-        <v>80.0</v>
-      </c>
-      <c r="S167" s="7"/>
-      <c r="T167" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U167" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V167" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W167" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X167" s="7"/>
+        <v>297</v>
+      </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>278</v>
@@ -7341,48 +6894,12 @@
         <v>13</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M168" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N168" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O168" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P168" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q168" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R168" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S168" s="7"/>
-      <c r="T168" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U168" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V168" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W168" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X168" s="7"/>
+        <v>299</v>
+      </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>278</v>
@@ -7409,48 +6926,12 @@
         <v>13</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P169" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q169" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R169" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S169" s="7"/>
-      <c r="T169" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U169" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V169" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W169" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X169" s="7"/>
+        <v>301</v>
+      </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>278</v>
@@ -7477,48 +6958,12 @@
         <v>13</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O170" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P170" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="Q170" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R170" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="S170" s="7"/>
-      <c r="T170" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U170" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V170" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W170" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X170" s="7"/>
+        <v>303</v>
+      </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>278</v>
@@ -7545,48 +6990,12 @@
         <v>13</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P171" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="Q171" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R171" s="8">
-        <v>70.0</v>
-      </c>
-      <c r="S171" s="7"/>
-      <c r="T171" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U171" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V171" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W171" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X171" s="7"/>
+        <v>305</v>
+      </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>278</v>
@@ -7613,48 +7022,12 @@
         <v>13</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K172" s="7"/>
-      <c r="L172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P172" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="Q172" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R172" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="S172" s="7"/>
-      <c r="T172" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U172" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V172" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W172" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X172" s="7"/>
+        <v>307</v>
+      </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>278</v>
@@ -7681,48 +7054,12 @@
         <v>13</v>
       </c>
       <c r="J173" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P173" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q173" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R173" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="S173" s="7"/>
-      <c r="T173" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U173" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V173" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W173" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X173" s="7"/>
+        <v>309</v>
+      </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>278</v>
@@ -7749,48 +7086,12 @@
         <v>13</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P174" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="Q174" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R174" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="S174" s="7"/>
-      <c r="T174" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U174" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V174" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W174" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X174" s="7"/>
+        <v>311</v>
+      </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>278</v>
@@ -7817,48 +7118,12 @@
         <v>13</v>
       </c>
       <c r="J175" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M175" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N175" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O175" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P175" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q175" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R175" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S175" s="7"/>
-      <c r="T175" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U175" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V175" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W175" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X175" s="7"/>
+        <v>313</v>
+      </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>278</v>
@@ -7885,48 +7150,12 @@
         <v>13</v>
       </c>
       <c r="J176" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P176" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="Q176" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R176" s="8">
-        <v>95.0</v>
-      </c>
-      <c r="S176" s="7"/>
-      <c r="T176" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U176" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V176" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W176" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X176" s="7"/>
+        <v>315</v>
+      </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>278</v>
@@ -7953,48 +7182,12 @@
         <v>13</v>
       </c>
       <c r="J177" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K177" s="7"/>
-      <c r="L177" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M177" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N177" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O177" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P177" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q177" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R177" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S177" s="7"/>
-      <c r="T177" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U177" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V177" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W177" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X177" s="7"/>
+        <v>317</v>
+      </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>278</v>
@@ -8021,48 +7214,12 @@
         <v>13</v>
       </c>
       <c r="J178" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K178" s="7"/>
-      <c r="L178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P178" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q178" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R178" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S178" s="7"/>
-      <c r="T178" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U178" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V178" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W178" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X178" s="7"/>
+        <v>319</v>
+      </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>278</v>
@@ -8089,48 +7246,12 @@
         <v>13</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K179" s="7"/>
-      <c r="L179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P179" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q179" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R179" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S179" s="7"/>
-      <c r="T179" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U179" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V179" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W179" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X179" s="7"/>
+        <v>321</v>
+      </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>278</v>
@@ -8157,48 +7278,12 @@
         <v>13</v>
       </c>
       <c r="J180" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K180" s="7"/>
-      <c r="L180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P180" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="Q180" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R180" s="8">
-        <v>105.0</v>
-      </c>
-      <c r="S180" s="7"/>
-      <c r="T180" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U180" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V180" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W180" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X180" s="7"/>
+        <v>323</v>
+      </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>278</v>
@@ -8225,48 +7310,12 @@
         <v>13</v>
       </c>
       <c r="J181" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O181" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P181" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q181" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R181" s="8">
-        <v>65.0</v>
-      </c>
-      <c r="S181" s="7"/>
-      <c r="T181" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U181" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V181" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W181" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X181" s="7"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>278</v>
@@ -8293,48 +7342,12 @@
         <v>13</v>
       </c>
       <c r="J182" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K182" s="7"/>
-      <c r="L182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O182" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P182" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q182" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R182" s="8">
-        <v>65.0</v>
-      </c>
-      <c r="S182" s="7"/>
-      <c r="T182" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U182" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V182" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W182" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X182" s="7"/>
+        <v>327</v>
+      </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>278</v>
@@ -8361,48 +7374,12 @@
         <v>13</v>
       </c>
       <c r="J183" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K183" s="7"/>
-      <c r="L183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O183" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P183" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q183" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R183" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S183" s="7"/>
-      <c r="T183" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U183" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V183" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W183" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X183" s="7"/>
+        <v>329</v>
+      </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>278</v>
@@ -8429,48 +7406,12 @@
         <v>13</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O184" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P184" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="Q184" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R184" s="8">
-        <v>100.0</v>
-      </c>
-      <c r="S184" s="7"/>
-      <c r="T184" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U184" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V184" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W184" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X184" s="7"/>
+        <v>331</v>
+      </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>278</v>
@@ -8497,48 +7438,12 @@
         <v>13</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O185" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P185" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q185" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R185" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S185" s="7"/>
-      <c r="T185" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U185" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V185" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W185" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X185" s="7"/>
+        <v>333</v>
+      </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>278</v>
@@ -8565,55 +7470,19 @@
         <v>13</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M186" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N186" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O186" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P186" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q186" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R186" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S186" s="7"/>
-      <c r="T186" s="8">
-        <v>439.0</v>
-      </c>
-      <c r="U186" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V186" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W186" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X186" s="7"/>
+        <v>335</v>
+      </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D187" s="3" t="s">
         <v>13</v>
       </c>
@@ -8634,58 +7503,18 @@
       </c>
       <c r="J187" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P187" s="8">
-        <v>22.0</v>
-      </c>
-      <c r="Q187" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="R187" s="8">
-        <v>975.0</v>
-      </c>
-      <c r="S187" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T187" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U187" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V187" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W187" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X187" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D188" s="3" t="s">
         <v>13</v>
       </c>
@@ -8705,55 +7534,19 @@
         <v>13</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P188" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q188" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R188" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="S188" s="7"/>
-      <c r="T188" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U188" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V188" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="W188" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X188" s="7"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D189" s="3" t="s">
         <v>13</v>
       </c>
@@ -8773,55 +7566,19 @@
         <v>13</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P189" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q189" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R189" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S189" s="7"/>
-      <c r="T189" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U189" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V189" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W189" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X189" s="7"/>
+        <v>342</v>
+      </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D190" s="3" t="s">
         <v>13</v>
       </c>
@@ -8841,55 +7598,19 @@
         <v>13</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P190" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q190" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R190" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S190" s="7"/>
-      <c r="T190" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U190" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V190" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W190" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X190" s="7"/>
+        <v>344</v>
+      </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B191" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D191" s="3" t="s">
         <v>13</v>
       </c>
@@ -8909,55 +7630,19 @@
         <v>13</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K191" s="7"/>
-      <c r="L191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P191" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q191" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R191" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S191" s="7"/>
-      <c r="T191" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U191" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V191" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W191" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X191" s="7"/>
+        <v>346</v>
+      </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D192" s="3" t="s">
         <v>13</v>
       </c>
@@ -8977,54 +7662,18 @@
         <v>13</v>
       </c>
       <c r="J192" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K192" s="7"/>
-      <c r="L192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P192" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q192" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R192" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S192" s="7"/>
-      <c r="T192" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U192" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V192" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W192" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X192" s="7"/>
+        <v>348</v>
+      </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>13</v>
@@ -9047,53 +7696,17 @@
       <c r="J193" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K193" s="7"/>
-      <c r="L193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O193" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P193" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="Q193" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R193" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="S193" s="7"/>
-      <c r="T193" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U193" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V193" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W193" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X193" s="7"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D194" s="3" t="s">
         <v>13</v>
       </c>
@@ -9113,55 +7726,19 @@
         <v>13</v>
       </c>
       <c r="J194" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K194" s="7"/>
-      <c r="L194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O194" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P194" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q194" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R194" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S194" s="7"/>
-      <c r="T194" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U194" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V194" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W194" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X194" s="7"/>
+        <v>351</v>
+      </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D195" s="3" t="s">
         <v>13</v>
       </c>
@@ -9181,55 +7758,19 @@
         <v>13</v>
       </c>
       <c r="J195" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M195" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N195" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O195" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P195" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q195" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R195" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="S195" s="7"/>
-      <c r="T195" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U195" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V195" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W195" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X195" s="7"/>
+        <v>353</v>
+      </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D196" s="3" t="s">
         <v>13</v>
       </c>
@@ -9249,55 +7790,19 @@
         <v>13</v>
       </c>
       <c r="J196" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="K196" s="7"/>
-      <c r="L196" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M196" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N196" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O196" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P196" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q196" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R196" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S196" s="7"/>
-      <c r="T196" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U196" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V196" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W196" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X196" s="7"/>
+        <v>355</v>
+      </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B197" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D197" s="3" t="s">
         <v>13</v>
       </c>
@@ -9317,55 +7822,19 @@
         <v>13</v>
       </c>
       <c r="J197" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K197" s="7"/>
-      <c r="L197" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M197" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N197" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O197" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P197" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q197" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R197" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S197" s="7"/>
-      <c r="T197" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U197" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V197" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W197" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X197" s="7"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D198" s="3" t="s">
         <v>13</v>
       </c>
@@ -9385,53 +7854,19 @@
         <v>13</v>
       </c>
       <c r="J198" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K198" s="7"/>
-      <c r="L198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R198" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="S198" s="7"/>
-      <c r="T198" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U198" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V198" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W198" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X198" s="7"/>
+        <v>359</v>
+      </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D199" s="3" t="s">
         <v>13</v>
       </c>
@@ -9451,53 +7886,19 @@
         <v>13</v>
       </c>
       <c r="J199" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K199" s="7"/>
-      <c r="L199" s="7"/>
-      <c r="M199" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N199" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O199" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P199" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q199" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R199" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S199" s="7"/>
-      <c r="T199" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U199" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V199" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W199" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X199" s="7"/>
+        <v>361</v>
+      </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D200" s="3" t="s">
         <v>13</v>
       </c>
@@ -9517,53 +7918,19 @@
         <v>13</v>
       </c>
       <c r="J200" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K200" s="7"/>
-      <c r="L200" s="7"/>
-      <c r="M200" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N200" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O200" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P200" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q200" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R200" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="S200" s="7"/>
-      <c r="T200" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U200" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V200" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W200" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X200" s="7"/>
+        <v>363</v>
+      </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D201" s="3" t="s">
         <v>13</v>
       </c>
@@ -9583,53 +7950,19 @@
         <v>13</v>
       </c>
       <c r="J201" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N201" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O201" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P201" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q201" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R201" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S201" s="7"/>
-      <c r="T201" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U201" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V201" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W201" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X201" s="7"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D202" s="3" t="s">
         <v>13</v>
       </c>
@@ -9649,53 +7982,19 @@
         <v>13</v>
       </c>
       <c r="J202" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N202" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O202" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P202" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q202" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R202" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S202" s="7"/>
-      <c r="T202" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U202" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V202" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W202" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X202" s="7"/>
+        <v>367</v>
+      </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D203" s="3" t="s">
         <v>13</v>
       </c>
@@ -9715,53 +8014,19 @@
         <v>13</v>
       </c>
       <c r="J203" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="K203" s="7"/>
-      <c r="L203" s="7"/>
-      <c r="M203" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N203" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O203" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P203" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q203" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R203" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S203" s="7"/>
-      <c r="T203" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U203" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V203" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W203" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X203" s="7"/>
+        <v>369</v>
+      </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D204" s="3" t="s">
         <v>13</v>
       </c>
@@ -9781,53 +8046,19 @@
         <v>13</v>
       </c>
       <c r="J204" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N204" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O204" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P204" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q204" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R204" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S204" s="7"/>
-      <c r="T204" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U204" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V204" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W204" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X204" s="7"/>
+        <v>371</v>
+      </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B205" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D205" s="3" t="s">
         <v>13</v>
       </c>
@@ -9847,53 +8078,19 @@
         <v>13</v>
       </c>
       <c r="J205" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K205" s="7"/>
-      <c r="L205" s="7"/>
-      <c r="M205" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N205" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O205" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P205" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q205" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R205" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S205" s="7"/>
-      <c r="T205" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U205" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V205" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W205" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X205" s="7"/>
+        <v>373</v>
+      </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D206" s="3" t="s">
         <v>13</v>
       </c>
@@ -9913,53 +8110,19 @@
         <v>13</v>
       </c>
       <c r="J206" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K206" s="7"/>
-      <c r="L206" s="7"/>
-      <c r="M206" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N206" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O206" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P206" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q206" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R206" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S206" s="7"/>
-      <c r="T206" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U206" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V206" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W206" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X206" s="7"/>
+        <v>375</v>
+      </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B207" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D207" s="3" t="s">
         <v>13</v>
       </c>
@@ -9979,53 +8142,19 @@
         <v>13</v>
       </c>
       <c r="J207" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K207" s="7"/>
-      <c r="L207" s="7"/>
-      <c r="M207" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N207" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O207" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P207" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q207" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R207" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="S207" s="7"/>
-      <c r="T207" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="U207" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V207" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="W207" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X207" s="7"/>
+        <v>377</v>
+      </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="D208" s="3" t="s">
         <v>13</v>
       </c>
@@ -10046,129 +8175,49 @@
       </c>
       <c r="J208" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="K208" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L208" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M208" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N208" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O208" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P208" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="Q208" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="R208" s="8">
-        <v>195.0</v>
-      </c>
-      <c r="S208" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="T208" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U208" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V208" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W208" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X208" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C209" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D209" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K209" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L209" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M209" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N209" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O209" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P209" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q209" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R209" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="S209" s="7"/>
-      <c r="T209" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U209" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V209" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W209" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X209" s="7"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
       <c r="A210" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>13</v>
@@ -10189,56 +8238,18 @@
         <v>13</v>
       </c>
       <c r="J210" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L210" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M210" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N210" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O210" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P210" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q210" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R210" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="S210" s="7"/>
-      <c r="T210" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U210" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V210" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W210" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X210" s="7"/>
+        <v>384</v>
+      </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>13</v>
@@ -10259,56 +8270,18 @@
         <v>13</v>
       </c>
       <c r="J211" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K211" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L211" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M211" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N211" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O211" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P211" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q211" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R211" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="S211" s="7"/>
-      <c r="T211" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U211" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V211" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W211" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X211" s="7"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>13</v>
@@ -10329,56 +8302,18 @@
         <v>13</v>
       </c>
       <c r="J212" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K212" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L212" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M212" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N212" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O212" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P212" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q212" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R212" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="S212" s="7"/>
-      <c r="T212" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U212" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V212" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W212" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X212" s="7"/>
+        <v>388</v>
+      </c>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>13</v>
@@ -10399,56 +8334,18 @@
         <v>13</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K213" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L213" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M213" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N213" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O213" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P213" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q213" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R213" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="S213" s="7"/>
-      <c r="T213" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U213" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V213" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W213" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X213" s="7"/>
+        <v>390</v>
+      </c>
     </row>
     <row r="214" ht="14.25" customHeight="1">
       <c r="A214" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>13</v>
@@ -10469,56 +8366,18 @@
         <v>13</v>
       </c>
       <c r="J214" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="K214" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L214" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O214" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P214" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q214" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R214" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="S214" s="7"/>
-      <c r="T214" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U214" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V214" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W214" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X214" s="7"/>
+        <v>392</v>
+      </c>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>13</v>
@@ -10539,56 +8398,18 @@
         <v>13</v>
       </c>
       <c r="J215" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K215" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L215" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M215" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N215" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O215" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P215" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q215" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R215" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="S215" s="7"/>
-      <c r="T215" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U215" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V215" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W215" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X215" s="7"/>
+        <v>394</v>
+      </c>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>13</v>
@@ -10609,56 +8430,18 @@
         <v>13</v>
       </c>
       <c r="J216" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K216" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L216" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M216" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N216" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O216" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P216" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q216" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R216" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="S216" s="7"/>
-      <c r="T216" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U216" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V216" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W216" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X216" s="7"/>
+        <v>396</v>
+      </c>
     </row>
     <row r="217" ht="14.25" customHeight="1">
       <c r="A217" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>13</v>
@@ -10679,56 +8462,18 @@
         <v>13</v>
       </c>
       <c r="J217" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K217" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L217" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M217" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N217" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O217" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P217" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q217" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R217" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="S217" s="7"/>
-      <c r="T217" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U217" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V217" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W217" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X217" s="7"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="218" ht="14.25" customHeight="1">
       <c r="A218" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>13</v>
@@ -10749,56 +8494,18 @@
         <v>13</v>
       </c>
       <c r="J218" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="K218" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L218" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M218" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N218" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O218" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P218" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q218" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R218" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="S218" s="7"/>
-      <c r="T218" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U218" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V218" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W218" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X218" s="7"/>
+        <v>400</v>
+      </c>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>13</v>
@@ -10819,252 +8526,17 @@
         <v>13</v>
       </c>
       <c r="J219" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K219" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L219" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M219" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N219" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O219" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P219" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q219" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R219" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="S219" s="7"/>
-      <c r="T219" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="U219" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="V219" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="W219" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="X219" s="7"/>
+        <v>402</v>
+      </c>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="9"/>
-      <c r="F220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-      <c r="X220" s="3"/>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="9"/>
-      <c r="F221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-    </row>
-    <row r="222" ht="14.25" customHeight="1">
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="9"/>
-      <c r="F222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="9"/>
-      <c r="F223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
-      <c r="R223" s="3"/>
-      <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
-      <c r="U223" s="3"/>
-      <c r="V223" s="3"/>
-      <c r="W223" s="3"/>
-      <c r="X223" s="3"/>
-    </row>
-    <row r="224" ht="14.25" customHeight="1">
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="9"/>
-      <c r="F224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-      <c r="Q224" s="3"/>
-      <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
-      <c r="U224" s="3"/>
-      <c r="V224" s="3"/>
-      <c r="W224" s="3"/>
-      <c r="X224" s="3"/>
-    </row>
-    <row r="225" ht="14.25" customHeight="1">
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="9"/>
-      <c r="F225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-      <c r="Q225" s="3"/>
-      <c r="R225" s="3"/>
-      <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
-      <c r="U225" s="3"/>
-      <c r="V225" s="3"/>
-      <c r="W225" s="3"/>
-      <c r="X225" s="3"/>
-    </row>
-    <row r="226" ht="14.25" customHeight="1">
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="9"/>
-      <c r="F226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
-      <c r="U226" s="3"/>
-      <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-      <c r="X226" s="3"/>
-    </row>
-    <row r="227" ht="14.25" customHeight="1">
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="9"/>
-      <c r="F227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="3"/>
-      <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
-      <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
-      <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="9"/>
-      <c r="F228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-    </row>
-    <row r="229" ht="14.25" customHeight="1">
-      <c r="B229" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2" t="s">
-        <v>13</v>
+      <c r="B220" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F220:F229">
-      <formula1>"m,k"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B94 B103:B157 B220:B229">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B94 B103:B157 B220">
       <formula1>"Adam,Joanna,Anna,Andrzej,Zofia,Katarzyna,Julia,Adrianna,Irena,Krystian,Beata,Franciszek,Suma"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C95:C102">
@@ -11082,7 +8554,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B187:B207">
       <formula1>"Adam,Joanna,Anna,Andrzej,Zofia,Katarzyna,Julia,Adrianna,Irena,Krystian,Beata,Franciszek,Suma,Gabriela,Hubert"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C94 C103:C157 C220:C229">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C94 C103:C157">
       <formula1>"Kowalski,Jagodna,Kapuścińska,Pliszka,Górska,Wiśniewska,Zielińska,Opolska,Stryjek,Wójcik,Kamińska,Lewandowski"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B95:B102">
